--- a/upload/nhaphang.xlsx
+++ b/upload/nhaphang.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -35,13 +35,7 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Nước ép dứa 240ml</t>
-  </si>
-  <si>
-    <t>Bánh xốp sầu riêng 50g</t>
-  </si>
-  <si>
-    <t>Cháo tươi rau củ thập cẩm 260g</t>
+    <t>Nước ngọt Pepsi 1,5lit</t>
   </si>
 </sst>
 </file>
@@ -359,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,29 +384,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/upload/nhaphang.xlsx
+++ b/upload/nhaphang.xlsx
@@ -35,7 +35,7 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Nước ngọt Pepsi 1,5lit</t>
+    <t>Nước ngọt Mirinda vị cam 1,5lit</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/upload/nhaphang.xlsx
+++ b/upload/nhaphang.xlsx
@@ -35,7 +35,7 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Nước ngọt Mirinda vị cam 1,5lit</t>
+    <t>tien23</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
